--- a/User Stories/ASDE_Training_USER_STORIES.xlsx
+++ b/User Stories/ASDE_Training_USER_STORIES.xlsx
@@ -359,6 +359,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The following classes of tests need to be implemented:-
 a)</t>
     </r>
@@ -612,6 +619,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">The following screens need to be developed:
 a) </t>
     </r>
@@ -863,10 +876,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -933,13 +946,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -949,7 +955,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,8 +977,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,9 +1007,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,7 +1025,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,15 +1045,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1042,14 +1054,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,13 +1096,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,37 +1138,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1174,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,97 +1258,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,15 +1281,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1334,17 +1338,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,11 +1360,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,15 +1386,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1394,131 +1407,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1535,9 +1548,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1894,8 +1904,8 @@
   <sheetPr/>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:L42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A31" sqref="$A31:$XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1927,49 +1937,49 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
@@ -2016,17 +2026,17 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2067,17 +2077,17 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2085,32 +2095,32 @@
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
@@ -2178,32 +2188,32 @@
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
@@ -2253,45 +2263,45 @@
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
@@ -2377,45 +2387,45 @@
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" spans="1:11">
       <c r="A38" s="2"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
@@ -2447,18 +2457,18 @@
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2525,35 +2535,35 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
@@ -2656,32 +2666,32 @@
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
@@ -2765,15 +2775,15 @@
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
@@ -2805,45 +2815,45 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
@@ -2875,18 +2885,18 @@
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2947,35 +2957,35 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
@@ -3060,18 +3070,18 @@
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
@@ -3101,53 +3111,53 @@
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
@@ -3249,46 +3259,46 @@
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
@@ -3334,45 +3344,45 @@
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
@@ -3404,32 +3414,32 @@
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
@@ -3461,18 +3471,18 @@
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3544,35 +3554,35 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
@@ -3639,7 +3649,7 @@
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="5"/>
@@ -3657,18 +3667,18 @@
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
@@ -3698,43 +3708,43 @@
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" ht="99" customHeight="1" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="4"/>
@@ -3752,7 +3762,7 @@
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C16" s="4"/>
@@ -3770,7 +3780,7 @@
       <c r="A17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C17" s="4"/>
@@ -3788,7 +3798,7 @@
       <c r="A18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="4"/>
@@ -3806,7 +3816,7 @@
       <c r="A19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="4"/>
@@ -3824,7 +3834,7 @@
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C20" s="4"/>
@@ -3936,7 +3946,7 @@
       <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="4"/>
@@ -3954,7 +3964,7 @@
       <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C29" s="4"/>
@@ -3972,31 +3982,31 @@
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
@@ -4096,31 +4106,31 @@
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
@@ -4166,32 +4176,32 @@
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
@@ -4223,18 +4233,18 @@
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -4330,22 +4340,22 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
@@ -4409,36 +4419,36 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:12">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" ht="103" customHeight="1" spans="1:12">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
@@ -4606,18 +4616,18 @@
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
@@ -4647,37 +4657,37 @@
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
@@ -4701,7 +4711,7 @@
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4709,7 +4719,7 @@
       <c r="A27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>136</v>
       </c>
       <c r="C27" s="4"/>
@@ -4759,17 +4769,17 @@
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
@@ -4855,7 +4865,7 @@
       <c r="A36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C36" s="4"/>
@@ -4873,7 +4883,7 @@
       <c r="A37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C37" s="4"/>
@@ -4891,31 +4901,31 @@
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
@@ -4979,32 +4989,32 @@
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
@@ -5036,18 +5046,18 @@
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/User Stories/ASDE_Training_USER_STORIES.xlsx
+++ b/User Stories/ASDE_Training_USER_STORIES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="2" r:id="rId1"/>
@@ -876,10 +876,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -924,6 +924,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -939,23 +946,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,23 +970,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,9 +985,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,8 +1009,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,13 +1033,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,7 +1048,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,7 +1081,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,13 +1090,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,43 +1108,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,7 +1138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,7 +1150,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,25 +1174,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,7 +1234,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,31 +1264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,7 +1276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,6 +1329,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1334,6 +1349,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1352,32 +1382,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,7 +1392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1404,134 +1410,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,10 +1580,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1904,7 +1931,7 @@
   <sheetPr/>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A31" sqref="$A31:$XFD37"/>
     </sheetView>
   </sheetViews>
@@ -2026,17 +2053,17 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2077,17 +2104,17 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3521,8 +3548,8 @@
   <sheetPr/>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A45" sqref="$A45:$XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3584,101 +3611,113 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
@@ -3726,7 +3765,7 @@
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="9"/>
@@ -3741,22 +3780,22 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">

--- a/User Stories/ASDE_Training_USER_STORIES.xlsx
+++ b/User Stories/ASDE_Training_USER_STORIES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="135">
   <si>
     <t>Sprint Name:</t>
   </si>
@@ -359,13 +359,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>The following classes of tests need to be implemented:-
 a)</t>
     </r>
@@ -454,7 +447,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- Test the Service tier and the database.</t>
+      <t xml:space="preserve">- Test the Service tier and the database.                                                                                                                                     </t>
     </r>
   </si>
   <si>
@@ -485,106 +478,6 @@
     <t>Successfully test the REST API endpoints in  Postman.</t>
   </si>
   <si>
-    <t>Refactor to use Spring Data JPA with Hibernate for database operations</t>
-  </si>
-  <si>
-    <t>Follow the TDD approach to refactoring the application to use Spring Data JPA with Hibernate.Write the test cases using JUnit but using the framework support in Spring Boot.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">The following classes of tests also need to be implemented:-                                                                                                                                       
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a) Smoke and Sanity test:-.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Check if the Spring Context is running.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b) System test:-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> It will test the complete application.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c)  Integration test:-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Test the Controller tier together with the Service  layer.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">d) JPA test:- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Test the Service tier and the database.</t>
-    </r>
-  </si>
-  <si>
-    <t>REST APIs successfully tested in Postman.</t>
-  </si>
-  <si>
     <t>Create a FreeStyle project in Jenkins to automate the workflow</t>
   </si>
   <si>
@@ -606,7 +499,7 @@
     <t>Week 5</t>
   </si>
   <si>
-    <t>Create the Frontend  for the EMS using React, Dockerize the application and Refactor to use Microservices</t>
+    <t>Create the Frontend  for the EMS using React and Dockerize the application</t>
   </si>
   <si>
     <t>Create a React Project in Visual Studio Code</t>
@@ -756,26 +649,6 @@
       </rPr>
       <t>Employee View Timesheets</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-i) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Search Feature</t>
-    </r>
   </si>
   <si>
     <t>Introduce a 3 second delay into the application when the list of records is being retrieved, or when a record is being updated or added.</t>
@@ -844,31 +717,7 @@
     <t>React Application Served With NGINX and Docker</t>
   </si>
   <si>
-    <t>Use Spring Cloud Microservices and Spring Boot Framework to make this application distributed.</t>
-  </si>
-  <si>
-    <t>Register the spring boot application  with the eureka discovery server.</t>
-  </si>
-  <si>
-    <t>Setup Front End React App to make requests to the NGINX server which acts as a reverse proxy.</t>
-  </si>
-  <si>
-    <t>Allow NGINX server to redirect the requests to Zuul API Gateway.</t>
-  </si>
-  <si>
-    <t>Zuul will route the requests to microservice based on the URL route.</t>
-  </si>
-  <si>
-    <t>Zuul also registers with eureka and gets the IP/domain from eureka for the microservice while routing the request.</t>
-  </si>
-  <si>
-    <t>Change Zuul's load-balancing strategy to any other Netflix Ribbon strategy</t>
-  </si>
-  <si>
-    <t>EMS refactored to Microservices application</t>
-  </si>
-  <si>
-    <t>Create the Deployment diagram for the refactored Microservices EMS.</t>
+    <t>Changes to the code base needs to be reflected in the UML class and sequence diagrams.</t>
   </si>
 </sst>
 </file>
@@ -876,10 +725,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -925,6 +774,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -939,16 +795,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,10 +833,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -994,26 +858,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,13 +879,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1048,7 +889,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,6 +910,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1081,7 +930,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,7 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,25 +951,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,54 +993,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1198,7 +1005,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,7 +1053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,13 +1077,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,25 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,6 +1213,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1378,166 +1230,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1580,31 +1423,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2053,17 +1899,17 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2104,17 +1950,17 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3546,10 +3392,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:L29"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3611,113 +3457,113 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="14" t="s">
+    <row r="4" s="14" customFormat="1" spans="1:12">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" s="14" customFormat="1" spans="1:12">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:12">
-      <c r="A6" s="14" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" s="14" customFormat="1" ht="20" customHeight="1" spans="1:12">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="14" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" s="14" customFormat="1" spans="1:12">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="14" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" s="14" customFormat="1" spans="1:12">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="14" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" s="14" customFormat="1" spans="1:12">
+      <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="16"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
@@ -3761,11 +3607,11 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" ht="99" customHeight="1" spans="1:12">
+    <row r="14" ht="117" customHeight="1" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="9"/>
@@ -3779,23 +3625,23 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="14" t="s">
+    <row r="15" s="14" customFormat="1" spans="1:12">
+      <c r="A15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
@@ -3909,29 +3755,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="28" customHeight="1" spans="1:12">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" ht="68" customHeight="1" spans="1:12">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="5"/>
@@ -3945,190 +3791,157 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" ht="28" customHeight="1" spans="1:12">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" ht="28" customHeight="1" spans="1:12">
+      <c r="B26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" ht="28" customHeight="1" spans="1:12">
+      <c r="B27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" ht="28" customHeight="1" spans="1:12">
-      <c r="A29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -4146,7 +3959,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -4158,135 +3971,8 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="27">
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="B7:L7"/>
@@ -4308,20 +3994,12 @@
     <mergeCell ref="B25:L25"/>
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="B36:L36"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="B33:K33"/>
     <mergeCell ref="B37:L37"/>
     <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B42:L42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="B48:K48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4331,10 +4009,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4348,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4367,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4401,7 +4079,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4426,7 +4104,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -4444,7 +4122,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4462,7 +4140,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4494,7 +4172,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4512,7 +4190,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4530,7 +4208,7 @@
         <v>95</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -4548,7 +4226,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4563,10 +4241,10 @@
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -4581,10 +4259,10 @@
     </row>
     <row r="15" ht="38" customHeight="1" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4599,10 +4277,10 @@
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4617,10 +4295,10 @@
     </row>
     <row r="17" ht="38" customHeight="1" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -4635,10 +4313,10 @@
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4656,7 +4334,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -4673,7 +4351,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4697,7 +4375,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4715,7 +4393,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4733,7 +4411,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -4751,7 +4429,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -4759,7 +4437,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -4777,7 +4455,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -4790,35 +4468,32 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:11">
       <c r="A29" s="2"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="B30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
@@ -4828,120 +4503,87 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" ht="28" customHeight="1" spans="1:12">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" ht="21" customHeight="1" spans="1:12">
+      <c r="B32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" ht="28" customHeight="1" spans="1:12">
-      <c r="A34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" ht="28" customHeight="1" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" ht="28" customHeight="1" spans="1:12">
+        <v>81</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" ht="28" customHeight="1" spans="1:12">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -4953,153 +4595,8 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="29">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B6:L6"/>
@@ -5122,20 +4619,11 @@
     <mergeCell ref="B25:L25"/>
     <mergeCell ref="B27:L27"/>
     <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B32:L32"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="B36:L36"/>
+    <mergeCell ref="B33:K33"/>
     <mergeCell ref="B37:L37"/>
     <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B42:L42"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B48:L48"/>
-    <mergeCell ref="B49:K49"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:L9"/>
   </mergeCells>

--- a/User Stories/ASDE_Training_USER_STORIES.xlsx
+++ b/User Stories/ASDE_Training_USER_STORIES.xlsx
@@ -359,6 +359,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The following classes of tests need to be implemented:-
 a)</t>
     </r>
@@ -654,7 +661,7 @@
     <t>Introduce a 3 second delay into the application when the list of records is being retrieved, or when a record is being updated or added.</t>
   </si>
   <si>
-    <t>The pages displaying the list of records and update a record should show a Spinner or Progress Bar while the page is being displayed or the  records are being retrieved. The Spinner or Progress Bar should disappear when the page is rendered.</t>
+    <t>The pages displaying the list of records and save/update of a record should show a Spinner or Progress Bar while the page is being displayed or the  records are being retrieved. The Spinner or Progress Bar should disappear when the page is rendered.</t>
   </si>
   <si>
     <t>The page(s) where a record is added or updated should have the Save/Update button disabled while  a new record is being saved or updated. The label on the button should change from 'Save' to 'Saving..'.</t>
@@ -714,7 +721,7 @@
     <t>Run the complete stack with docker compose</t>
   </si>
   <si>
-    <t>React Application Served With NGINX and Docker</t>
+    <t>React Application Served With NGINX and Docker. Screenhots of Docker commands and terminal output checked into BitBucket.</t>
   </si>
   <si>
     <t>Changes to the code base needs to be reflected in the UML class and sequence diagrams.</t>
@@ -725,9 +732,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -787,6 +794,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -798,20 +827,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,11 +848,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,30 +880,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,15 +918,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,19 +946,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,103 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,13 +1006,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,25 +1108,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,6 +1137,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1174,24 +1196,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,31 +1237,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1253,130 +1260,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1417,6 +1424,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1431,9 +1441,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1810,49 +1817,49 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
@@ -1985,15 +1992,15 @@
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
@@ -2078,15 +2085,15 @@
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
@@ -2166,15 +2173,15 @@
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
@@ -2290,15 +2297,15 @@
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
@@ -2408,35 +2415,35 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
@@ -2556,15 +2563,15 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
@@ -2648,15 +2655,15 @@
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
@@ -2718,15 +2725,15 @@
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
@@ -2830,35 +2837,35 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
@@ -3247,15 +3254,15 @@
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
@@ -3304,15 +3311,15 @@
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
@@ -3427,74 +3434,63 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" s="14" customFormat="1" spans="1:12">
-      <c r="A4" s="15" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" s="15" customFormat="1" spans="1:11">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" s="14" customFormat="1" spans="1:12">
-      <c r="A5" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" s="15" customFormat="1" spans="1:2">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" s="14" customFormat="1" ht="20" customHeight="1" spans="1:12">
-      <c r="A6" s="15" t="s">
+    </row>
+    <row r="6" s="15" customFormat="1" ht="20" customHeight="1" spans="1:12">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -3511,8 +3507,8 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" s="14" customFormat="1" spans="1:12">
-      <c r="A7" s="15" t="s">
+    <row r="7" s="15" customFormat="1" spans="1:12">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -3529,8 +3525,8 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" s="14" customFormat="1" spans="1:12">
-      <c r="A8" s="15" t="s">
+    <row r="8" s="15" customFormat="1" spans="1:12">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -3547,8 +3543,8 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" s="14" customFormat="1" spans="1:12">
-      <c r="A9" s="15" t="s">
+    <row r="9" s="15" customFormat="1" spans="1:11">
+      <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -3563,7 +3559,6 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="17"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
@@ -3625,8 +3620,8 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" s="14" customFormat="1" spans="1:12">
-      <c r="A15" s="15" t="s">
+    <row r="15" s="15" customFormat="1" spans="1:12">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -3918,15 +3913,15 @@
       <c r="A35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
@@ -4011,8 +4006,8 @@
   <sheetPr/>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4057,22 +4052,22 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
@@ -4454,18 +4449,18 @@
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:11">
@@ -4540,17 +4535,17 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
@@ -4596,7 +4591,7 @@
       <c r="K38" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B6:L6"/>
@@ -4618,7 +4613,6 @@
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="B25:L25"/>
     <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B28:J28"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B32:L32"/>
     <mergeCell ref="B33:K33"/>

--- a/User Stories/ASDE_Training_USER_STORIES.xlsx
+++ b/User Stories/ASDE_Training_USER_STORIES.xlsx
@@ -781,7 +781,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,31 +794,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,14 +841,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -889,7 +866,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,14 +904,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,6 +912,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,7 +937,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,31 +946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,37 +958,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,19 +994,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1042,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,19 +1120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,31 +1132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,17 +1146,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,6 +1196,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1205,11 +1214,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,21 +1243,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,135 +1266,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1403,14 +1415,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1795,74 +1822,74 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" ht="18.75" spans="1:18">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -1870,140 +1897,140 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
@@ -2011,92 +2038,92 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
@@ -2104,87 +2131,87 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
@@ -2192,123 +2219,123 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:11">
-      <c r="A38" s="2"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
@@ -2316,39 +2343,39 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2393,77 +2420,77 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" ht="18.75" spans="1:18">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -2471,110 +2498,110 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -2582,91 +2609,91 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
@@ -2674,69 +2701,69 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
@@ -2744,39 +2771,39 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2815,77 +2842,77 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" ht="18.75" spans="1:18">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -2893,94 +2920,94 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
@@ -2988,75 +3015,75 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:12">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
@@ -3064,138 +3091,138 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" customHeight="1" spans="1:12">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:12">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:12">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
@@ -3203,69 +3230,69 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
@@ -3273,56 +3300,56 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
@@ -3330,39 +3357,39 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3412,172 +3439,172 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" ht="18.75" spans="1:18">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" s="15" customFormat="1" spans="1:11">
-      <c r="A4" s="16" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" s="22" customFormat="1" spans="1:11">
+      <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" s="15" customFormat="1" spans="1:2">
-      <c r="A5" s="16" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" s="22" customFormat="1" spans="1:2">
+      <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="15" customFormat="1" ht="20" customHeight="1" spans="1:12">
-      <c r="A6" s="16" t="s">
+    <row r="6" s="22" customFormat="1" ht="20" customHeight="1" spans="1:12">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" s="15" customFormat="1" spans="1:12">
-      <c r="A7" s="16" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" s="22" customFormat="1" spans="1:12">
+      <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" s="15" customFormat="1" spans="1:12">
-      <c r="A8" s="16" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" s="22" customFormat="1" spans="1:12">
+      <c r="A8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" s="15" customFormat="1" spans="1:11">
-      <c r="A9" s="16" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" s="22" customFormat="1" spans="1:11">
+      <c r="A9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
@@ -3585,165 +3612,165 @@
       </c>
     </row>
     <row r="13" ht="48" customHeight="1" spans="1:12">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" ht="117" customHeight="1" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" s="15" customFormat="1" spans="1:12">
-      <c r="A15" s="16" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" s="22" customFormat="1" spans="1:12">
+      <c r="A15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
@@ -3751,123 +3778,123 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
@@ -3875,56 +3902,56 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -3932,39 +3959,39 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4006,8 +4033,8 @@
   <sheetPr/>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4017,77 +4044,77 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" ht="18.75" spans="1:18">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
@@ -4095,270 +4122,270 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:12">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="17" customHeight="1" spans="1:12">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" ht="103" customHeight="1" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="103" customHeight="1" spans="1:12">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" ht="29" customHeight="1" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:12">
+      <c r="A13" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:12">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" ht="38" customHeight="1" spans="1:12">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:12">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" ht="38" customHeight="1" spans="1:12">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:12">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
@@ -4366,132 +4393,132 @@
       </c>
     </row>
     <row r="23" ht="17" customHeight="1" spans="1:12">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="5"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
@@ -4499,56 +4526,56 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -4556,39 +4583,39 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/User Stories/ASDE_Training_USER_STORIES.xlsx
+++ b/User Stories/ASDE_Training_USER_STORIES.xlsx
@@ -737,10 +737,17 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -768,6 +775,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF232629"/>
       <name val="Arial"/>
@@ -781,7 +802,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,6 +817,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,6 +855,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -840,19 +884,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,15 +909,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,36 +939,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,7 +973,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,169 +1153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,11 +1167,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,17 +1221,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,42 +1264,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1266,216 +1287,219 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1484,10 +1508,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1844,49 +1868,49 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
@@ -1900,50 +1924,50 @@
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1951,50 +1975,50 @@
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2019,15 +2043,15 @@
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
@@ -2041,55 +2065,55 @@
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="4" t="s">
@@ -2112,15 +2136,15 @@
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
@@ -2134,37 +2158,37 @@
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4" t="s">
@@ -2200,15 +2224,15 @@
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
@@ -2222,73 +2246,73 @@
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="4" t="s">
@@ -2324,15 +2348,15 @@
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
@@ -2346,19 +2370,19 @@
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="4" t="s">
@@ -2442,35 +2466,35 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
@@ -2501,73 +2525,73 @@
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
@@ -2590,15 +2614,15 @@
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
@@ -2612,85 +2636,85 @@
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
@@ -2704,19 +2728,19 @@
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="4" t="s">
@@ -2752,15 +2776,15 @@
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
@@ -2774,19 +2798,19 @@
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="4" t="s">
@@ -2864,35 +2888,35 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
@@ -2923,55 +2947,55 @@
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
@@ -3065,8 +3089,8 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
@@ -3094,73 +3118,73 @@
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" customHeight="1" spans="1:12">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:12">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:12">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="4" t="s">
@@ -3233,19 +3257,19 @@
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4" t="s">
@@ -3281,15 +3305,15 @@
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
@@ -3303,19 +3327,19 @@
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4" t="s">
@@ -3338,15 +3362,15 @@
       <c r="A36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
@@ -3360,19 +3384,19 @@
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="4" t="s">
@@ -3461,131 +3485,131 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" s="22" customFormat="1" spans="1:11">
-      <c r="A4" s="23" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" s="23" customFormat="1" spans="1:11">
+      <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" s="22" customFormat="1" spans="1:2">
-      <c r="A5" s="23" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" s="23" customFormat="1" spans="1:2">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="22" customFormat="1" ht="20" customHeight="1" spans="1:12">
-      <c r="A6" s="23" t="s">
+    <row r="6" s="23" customFormat="1" ht="20" customHeight="1" spans="1:12">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" s="22" customFormat="1" spans="1:12">
-      <c r="A7" s="23" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" s="23" customFormat="1" spans="1:12">
+      <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" s="22" customFormat="1" spans="1:12">
-      <c r="A8" s="23" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" s="23" customFormat="1" spans="1:12">
+      <c r="A8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" s="22" customFormat="1" spans="1:11">
-      <c r="A9" s="23" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" s="23" customFormat="1" spans="1:11">
+      <c r="A9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
@@ -3633,7 +3657,7 @@
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="16"/>
@@ -3647,113 +3671,113 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" s="22" customFormat="1" spans="1:12">
-      <c r="A15" s="23" t="s">
+    <row r="15" s="23" customFormat="1" spans="1:12">
+      <c r="A15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
@@ -3781,73 +3805,73 @@
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="4" t="s">
@@ -3905,19 +3929,19 @@
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4" t="s">
@@ -3940,15 +3964,15 @@
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
@@ -3962,19 +3986,19 @@
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="4" t="s">
@@ -4033,8 +4057,8 @@
   <sheetPr/>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4079,22 +4103,22 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" ht="18.75" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
@@ -4121,26 +4145,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:12">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="1" customFormat="1" ht="20" customHeight="1" spans="1:12">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:12">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -4190,166 +4214,166 @@
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" ht="29" customHeight="1" spans="1:12">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="29" customHeight="1" spans="1:12">
+      <c r="A11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:12">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:12">
-      <c r="A13" s="13" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:12">
+      <c r="A13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" ht="36" customHeight="1" spans="1:12">
-      <c r="A14" s="4" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="36" customHeight="1" spans="1:12">
+      <c r="A14" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" ht="38" customHeight="1" spans="1:12">
-      <c r="A15" s="4" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="38" customHeight="1" spans="1:12">
+      <c r="A15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" ht="29" customHeight="1" spans="1:12">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="29" customHeight="1" spans="1:12">
+      <c r="A16" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" ht="38" customHeight="1" spans="1:12">
-      <c r="A17" s="4" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="38" customHeight="1" spans="1:12">
+      <c r="A17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:12">
       <c r="A18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4" t="s">
@@ -4432,25 +4456,25 @@
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4458,37 +4482,37 @@
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="12"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
@@ -4529,19 +4553,19 @@
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4" t="s">
@@ -4564,15 +4588,15 @@
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
@@ -4586,19 +4610,19 @@
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="4" t="s">
